--- a/Data/Registros/Registro de Defectos proyecto Parroquia.xlsx
+++ b/Data/Registros/Registro de Defectos proyecto Parroquia.xlsx
@@ -626,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1108"/>
+  <dimension ref="A1:Z1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29363,395 +29363,2435 @@
         </is>
       </c>
     </row>
+    <row r="1053"/>
     <row r="1054">
       <c r="B1054" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1054" t="n">
+      <c r="D1054" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F1054" t="n">
+      <c r="F1054" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1054" t="inlineStr">
+      <c r="H1054" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Sacramentos</t>
         </is>
       </c>
     </row>
+    <row r="1055"/>
     <row r="1056">
-      <c r="B1056" t="inlineStr">
+      <c r="B1056" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1056" t="inlineStr">
+      <c r="C1056" s="0" t="inlineStr">
         <is>
           <t>Sin validación de roles apropiados por tipo sacramento. Sistema no valida matriz sacramento_tipo → roles_requeridos. Ej: Bautizo acepta cualquier combinación en vez de validar Bautizado(1), Padrino(&gt;=1), Ministro(1).</t>
         </is>
       </c>
     </row>
+    <row r="1057"/>
     <row r="1058">
       <c r="B1058" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1058" t="n">
+      <c r="D1058" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F1058" t="n">
+      <c r="F1058" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1058" t="inlineStr">
+      <c r="H1058" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Sacramentos</t>
         </is>
       </c>
     </row>
+    <row r="1059"/>
     <row r="1060">
-      <c r="B1060" t="inlineStr">
+      <c r="B1060" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1060" t="inlineStr">
+      <c r="C1060" s="0" t="inlineStr">
         <is>
           <t>Sin validación duplicados en mismo libro. Sistema permite registrar mismo feligrés múltiples veces en mismo tipo sacramento en mismo libro. Falta validar unicidad (feligres_id, tipo_sacramento, libro_id) para rol principal.</t>
         </is>
       </c>
     </row>
+    <row r="1061"/>
     <row r="1062">
       <c r="B1062" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1062" t="n">
+      <c r="D1062" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F1062" t="n">
+      <c r="F1062" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="H1062" t="inlineStr">
+      <c r="H1062" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1063"/>
     <row r="1064">
-      <c r="B1064" t="inlineStr">
+      <c r="B1064" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1064" t="inlineStr">
+      <c r="C1064" s="0" t="inlineStr">
         <is>
           <t>Tipos de libro hardcodeados en controller. Array PHP en obtenerNombreTipo() líneas 77-82 en lugar de tabla libro_tipos en BD. Cambiar nombre requiere modificar código fuente. No se pueden agregar tipos sin deployment.</t>
         </is>
       </c>
     </row>
+    <row r="1065"/>
     <row r="1066">
       <c r="B1066" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1066" t="n">
+      <c r="D1066" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F1066" t="n">
+      <c r="F1066" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1066" t="inlineStr">
+      <c r="H1066" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1067"/>
     <row r="1068">
-      <c r="B1068" t="inlineStr">
+      <c r="B1068" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1068" t="inlineStr">
+      <c r="C1068" s="0" t="inlineStr">
         <is>
           <t>No valida capacidad máxima libro anterior. Al crear libro nuevo no verifica si anterior alcanzó 1000 actas. Admin puede crear libro sin que anterior esté lleno. Potencial desperdicio de recursos físicos.</t>
         </is>
       </c>
     </row>
+    <row r="1069"/>
     <row r="1070">
       <c r="B1070" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1070" t="n">
+      <c r="D1070" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F1070" t="n">
+      <c r="F1070" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="H1070" t="inlineStr">
+      <c r="H1070" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1071"/>
     <row r="1072">
-      <c r="B1072" t="inlineStr">
+      <c r="B1072" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1072" t="inlineStr">
+      <c r="C1072" s="0" t="inlineStr">
         <is>
           <t>No retorna ni muestra libro recién creado. lastInsertId() se obtiene pero no se usa (línea 43 ModeloLibro). Usuario no ve confirmación visual clara. No hay opción de ir directamente al libro creado.</t>
         </is>
       </c>
     </row>
+    <row r="1073"/>
     <row r="1074">
       <c r="B1074" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1074" t="n">
+      <c r="D1074" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F1074" t="n">
+      <c r="F1074" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H1074" t="inlineStr">
+      <c r="H1074" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1075"/>
     <row r="1076">
-      <c r="B1076" t="inlineStr">
+      <c r="B1076" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1076" t="inlineStr">
+      <c r="C1076" s="0" t="inlineStr">
         <is>
           <t>Manejo inconsistente POST vs GET. seleccionarTipo() usa POST (línea 23) para operación idempotente de lectura. No sigue REST. Usuarios no pueden bookmarkear URL. Botón atrás muestra warning reenvío.</t>
         </is>
       </c>
     </row>
+    <row r="1077"/>
     <row r="1078">
       <c r="B1078" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1078" t="n">
+      <c r="D1078" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F1078" t="n">
+      <c r="F1078" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1078" t="inlineStr">
+      <c r="H1078" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1079"/>
     <row r="1080">
-      <c r="B1080" t="inlineStr">
+      <c r="B1080" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1080" t="inlineStr">
+      <c r="C1080" s="0" t="inlineStr">
         <is>
           <t>No existe vista detalles de libro. Sin forma de ver metadata (fecha creación, cantidad sacramentos, estado) sin entrar a Sacramentos. Admin no puede ver resumen sin navegarlo. Sin indicadores visuales de libros llenos/vacíos.</t>
         </is>
       </c>
     </row>
+    <row r="1081"/>
     <row r="1082">
       <c r="B1082" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1082" t="n">
+      <c r="D1082" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F1082" t="n">
+      <c r="F1082" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1082" t="inlineStr">
+      <c r="H1082" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Libros</t>
         </is>
       </c>
     </row>
+    <row r="1083"/>
     <row r="1084">
-      <c r="B1084" t="inlineStr">
+      <c r="B1084" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1084" t="inlineStr">
+      <c r="C1084" s="0" t="inlineStr">
         <is>
           <t>Sin paginación para muchos libros. Si parroquia tiene 50+ libros, todos se renderizan en un solo grid sin paginación (líneas 8-30 libros.php). Performance degrada. Página larga difícil de navegar.</t>
         </is>
       </c>
     </row>
+    <row r="1085"/>
     <row r="1086">
       <c r="B1086" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1086" t="n">
+      <c r="D1086" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F1086" t="n">
+      <c r="F1086" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="H1086" t="inlineStr">
+      <c r="H1086" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1087"/>
     <row r="1088">
-      <c r="B1088" t="inlineStr">
+      <c r="B1088" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1088" t="inlineStr">
+      <c r="C1088" s="0" t="inlineStr">
         <is>
           <t>Tipos documento hardcodeados. Array PHP líneas 146-153 ModeloFeligres en lugar de tabla tipos_documento. Cambiar nombre requiere modificar código. No se pueden agregar tipos sin deployment. Mismo defecto que DF-LIB-001.</t>
         </is>
       </c>
     </row>
+    <row r="1089"/>
     <row r="1090">
       <c r="B1090" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1090" t="n">
+      <c r="D1090" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F1090" t="n">
+      <c r="F1090" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1090" t="inlineStr">
+      <c r="H1090" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1091"/>
     <row r="1092">
-      <c r="B1092" t="inlineStr">
+      <c r="B1092" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1092" t="inlineStr">
+      <c r="C1092" s="0" t="inlineStr">
         <is>
           <t>Sin búsqueda/filtrado DataTables server-side. listar() líneas 40-101 no implementa búsqueda. Parámetro search[value] ignorado. Con 500+ feligreses navegación ineficiente. recordsFiltered siempre igual a recordsTotal.</t>
         </is>
       </c>
     </row>
+    <row r="1093"/>
     <row r="1094">
       <c r="B1094" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1094" t="n">
+      <c r="D1094" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F1094" t="n">
+      <c r="F1094" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H1094" t="inlineStr">
+      <c r="H1094" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1095"/>
     <row r="1096">
-      <c r="B1096" t="inlineStr">
+      <c r="B1096" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1096" t="inlineStr">
+      <c r="C1096" s="0" t="inlineStr">
         <is>
           <t>Buffer cleaning múltiple innecesario. ob_clean() ejecutado múltiples veces en bloques AJAX (líneas 57, 93, 133, 156, 215). Código repetitivo. Sugiere output no deseado antes de JSON. Posibles debugging output o warnings.</t>
         </is>
       </c>
     </row>
+    <row r="1097"/>
     <row r="1098">
       <c r="B1098" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1098" t="n">
+      <c r="D1098" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F1098" t="n">
+      <c r="F1098" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1098" t="inlineStr">
+      <c r="H1098" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1099"/>
     <row r="1100">
-      <c r="B1100" t="inlineStr">
+      <c r="B1100" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1100" t="inlineStr">
+      <c r="C1100" s="0" t="inlineStr">
         <is>
           <t>Sin validación formato documento. No valida formato de numero_documento según tipo. CC puede tener letras (debe ser solo números 6-10 dígitos). Longitud no validada. NIT sin formato dígito verificación. Datos inconsistentes en BD.</t>
         </is>
       </c>
     </row>
+    <row r="1101"/>
     <row r="1102">
       <c r="B1102" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1102" t="n">
+      <c r="D1102" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F1102" t="n">
+      <c r="F1102" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="H1102" t="inlineStr">
+      <c r="H1102" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1103"/>
     <row r="1104">
-      <c r="B1104" t="inlineStr">
+      <c r="B1104" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1104" t="inlineStr">
+      <c r="C1104" s="0" t="inlineStr">
         <is>
           <t>Inconsistencia patrón estado_registro. Feligreses usa DATETIME NULL/NOW() para soft delete. Otros módulos (Sacramentos) usan INT 1/0. Queries diferentes: IS NULL vs = 1. Desarrolladores deben recordar dos patrones.</t>
         </is>
       </c>
     </row>
+    <row r="1105"/>
     <row r="1106">
       <c r="B1106" s="40" t="n">
         <v>45974</v>
       </c>
-      <c r="D1106" t="n">
+      <c r="D1106" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F1106" t="n">
+      <c r="F1106" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H1106" t="inlineStr">
+      <c r="H1106" s="0" t="inlineStr">
         <is>
           <t>Análisis FASE 2 - Feligreses</t>
         </is>
       </c>
     </row>
+    <row r="1107"/>
     <row r="1108">
-      <c r="B1108" t="inlineStr">
+      <c r="B1108" s="0" t="inlineStr">
         <is>
           <t>Descripcion:</t>
         </is>
       </c>
-      <c r="C1108" t="inlineStr">
+      <c r="C1108" s="0" t="inlineStr">
         <is>
           <t>No retorna ID después crear feligrés. mdlCrearFeligres() líneas 59-62 no retorna lastInsertId(). Frontend no puede navegar inmediatamente al feligrés creado. Sacramentos debe hacer búsqueda adicional después de crear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109"/>
+    <row r="1110">
+      <c r="B1110" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1110" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1110" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1110" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111"/>
+    <row r="1112">
+      <c r="B1112" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1112" s="0" t="inlineStr">
+        <is>
+          <t>Actualizar rol usa DELETE+INSERT en lugar de UPDATE. actualizarRol() elimina relación antigua y crea nueva (líneas 369-374) en lugar de UPDATE directo. Pierde timestamp original, dos operaciones sin transacción, potencial inconsistencia si falla segunda operación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113"/>
+    <row r="1114">
+      <c r="B1114" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1114" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1114" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1114" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115"/>
+    <row r="1116">
+      <c r="B1116" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1116" s="0" t="inlineStr">
+        <is>
+          <t>No valida permiso de eliminar grupo solo para Admin. eliminar() no valida que solo Admin puede eliminar grupos (líneas 205-255). Secretario también puede eliminar. Violación de principio de privilegio mínimo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117"/>
+    <row r="1118">
+      <c r="B1118" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1118" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1118" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1118" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119"/>
+    <row r="1120">
+      <c r="B1120" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1120" s="0" t="inlineStr">
+        <is>
+          <t>No se valida sesión en métodos públicos del Controller. Ningún método valida autenticación o autorización antes de ejecutar. Usuario no autenticado puede acceder a funciones. Sin control de acceso basado en roles. Vulnerabilidad de seguridad crítica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121"/>
+    <row r="1122">
+      <c r="B1122" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1122" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1122" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1122" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123"/>
+    <row r="1124">
+      <c r="B1124" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1124" s="0" t="inlineStr">
+        <is>
+          <t>Sin paginación en lista de grupos. mdlListarGrupos() líneas 67-87 retorna todos los grupos sin limit/paginación. Con 100+ grupos, página lenta. Experiencia de usuario degradada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125"/>
+    <row r="1126">
+      <c r="B1126" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1126" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F1126" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1126" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127"/>
+    <row r="1128">
+      <c r="B1128" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1128" s="0" t="inlineStr">
+        <is>
+          <t>Eliminación de grupo no valida si tiene sacramentos asociados. mdlEliminarGrupo() líneas 223-268 elimina sin verificar dependencias. Potencial pérdida de integridad referencial. Datos huérfanos si grupos están relacionados con otras entidades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129"/>
+    <row r="1130">
+      <c r="B1130" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1130" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F1130" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1130" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Grupos</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131"/>
+    <row r="1132">
+      <c r="B1132" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1132" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de longitud máxima de nombre. mdlCrearGrupo() y mdlActualizarGrupo() no validan longitud. Usuario puede ingresar nombres muy largos. Potencial overflow si BD tiene límite VARCHAR(255). UX pobre sin feedback de límite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133"/>
+    <row r="1134">
+      <c r="B1134" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1134" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F1134" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1134" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135"/>
+    <row r="1136">
+      <c r="B1136" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1136" s="0" t="inlineStr">
+        <is>
+          <t>No valida autenticación en index(). index() línea 19 no verifica si usuario está autenticado. Cualquiera puede ver noticias. Si noticias deben ser privadas, hay vulnerabilidad de seguridad alta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137"/>
+    <row r="1138">
+      <c r="B1138" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1138" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F1138" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1138" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139"/>
+    <row r="1140">
+      <c r="B1140" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1140" s="0" t="inlineStr">
+        <is>
+          <t>Debug logs en producción. Logger::error() usado para debugging con datos de peticiones (líneas 47-52, 109-111, 176-178). Logs pueden contener información sensible. Debe usar Logger::debug() y desactivar en producción.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141"/>
+    <row r="1142">
+      <c r="B1142" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1142" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F1142" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1142" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143"/>
+    <row r="1144">
+      <c r="B1144" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1144" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de dimensiones de imagen. procesarImagen() líneas 292-336 valida tamaño (MB) pero no dimensiones (píxeles). Imagen de 1x10000px puede pasar. Falta validar if ($imageInfo[0] &gt; 4096 || $imageInfo[1] &gt; 4096).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145"/>
+    <row r="1146">
+      <c r="B1146" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1146" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F1146" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1146" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147"/>
+    <row r="1148">
+      <c r="B1148" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1148" s="0" t="inlineStr">
+        <is>
+          <t>No se eliminan imágenes al actualizar/eliminar. actualizar() y eliminar() no ejecutan unlink() de imagen anterior. Al cambiar imagen o eliminar noticia, imagen antigua queda en servidor ocupando espacio. Acumulación de archivos huérfanos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149"/>
+    <row r="1150">
+      <c r="B1150" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1150" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F1150" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1150" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151"/>
+    <row r="1152">
+      <c r="B1152" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1152" s="0" t="inlineStr">
+        <is>
+          <t>Sin paginación en lista de noticias. mdlObtenerNoticias() retorna TODAS las noticias sin limit. Con 1000+ noticias, performance degrada. Falta implementar LIMIT/OFFSET o DataTables server-side.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153"/>
+    <row r="1154">
+      <c r="B1154" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1154" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F1154" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1154" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Noticias</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155"/>
+    <row r="1156">
+      <c r="B1156" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1156" s="0" t="inlineStr">
+        <is>
+          <t>Campo id_usuario puede ser NULL. mdlCrearNoticia() línea 76 permite $datos['id_usuario'] NULL si session no tiene user-id. Noticia sin autor. Falta validar if (empty($_SESSION['user-id'])) throw new Exception('Usuario no identificado').</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157"/>
+    <row r="1158">
+      <c r="B1158" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1158" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F1158" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1158" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159"/>
+    <row r="1160">
+      <c r="B1160" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1160" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de autenticación/autorización. ReportesController::index() no verifica si usuario está autenticado ni rol. Cualquiera puede acceder a reportes financieros. Vulnerabilidad de seguridad crítica. Datos financieros expuestos sin restricción.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161"/>
+    <row r="1162">
+      <c r="B1162" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1162" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F1162" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1162" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163"/>
+    <row r="1164">
+      <c r="B1164" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1164" s="0" t="inlineStr">
+        <is>
+          <t>Detección de estado pago case-sensitive y frágil. Líneas 30-32 compara strings en español e inglés (['completo', 'pagado', 'paid', 'complete']). Inconsistente con BD. Si BD usa otros valores o códigos numéricos, conteo falla. Debe estandarizar estados en BD con códigos numéricos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165"/>
+    <row r="1166">
+      <c r="B1166" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1166" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F1166" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1166" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167"/>
+    <row r="1168">
+      <c r="B1168" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1168" s="0" t="inlineStr">
+        <is>
+          <t>INNER JOIN excluye reportes sin pago. obtenerReportes() línea 35 usa INNER JOIN, por lo que reportes sin pago asociado no aparecen. Si un reporte no tiene pago (error de datos o lógica), se oculta silenciosamente. Evaluar si debe ser LEFT JOIN.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169"/>
+    <row r="1170">
+      <c r="B1170" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1170" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F1170" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1170" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171"/>
+    <row r="1172">
+      <c r="B1172" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1172" s="0" t="inlineStr">
+        <is>
+          <t>Sin manejo de errores en controller. index() líneas 37-40 catch genérico con mensaje vago. No informa al usuario qué falló. Falta log más detallado y mensaje específico según tipo de error.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173"/>
+    <row r="1174">
+      <c r="B1174" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1174" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F1174" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1174" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175"/>
+    <row r="1176">
+      <c r="B1176" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1176" s="0" t="inlineStr">
+        <is>
+          <t>Sin paginación para reportes numerosos. obtenerReportes() retorna todos los reportes sin limit. Con 1000+ registros, performance degrada. Falta LIMIT/OFFSET o DataTables server-side.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177"/>
+    <row r="1178">
+      <c r="B1178" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1178" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F1178" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1178" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 3 - Reportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179"/>
+    <row r="1180">
+      <c r="B1180" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1180" s="0" t="inlineStr">
+        <is>
+          <t>Cálculo de totales en controller en vez de BD. Líneas 22-34 itera en PHP para sumar. Con 10,000 reportes, es ineficiente. Debe calcular en query SQL: SELECT COUNT(*) as total_reportes, SUM(p.valor) as total_valor, SUM(CASE WHEN p.estado = 2 THEN 1 ELSE 0 END) as pagos_completados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181"/>
+    <row r="1182">
+      <c r="B1182" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1182" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F1182" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1182" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183"/>
+    <row r="1184">
+      <c r="B1184" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1184" s="0" t="inlineStr">
+        <is>
+          <t>No se valida duplicados antes de crear solicitud. Existe mdlVerificarSolicitudExistente() líneas 499-525 pero NO se llama antes de crear certificado. Usuario puede solicitar múltiples veces el mismo certificado. Desperdicio de recursos (PDFs duplicados).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185"/>
+    <row r="1186">
+      <c r="B1186" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1186" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F1186" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1186" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187"/>
+    <row r="1188">
+      <c r="B1188" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1188" s="0" t="inlineStr">
+        <is>
+          <t>Monto de pago hardcodeado. mdlObtenerPendientesPago() línea 469 tiene 15000 AS monto. Cambiar precio requiere modificar código fuente. No se pueden tener precios diferenciados por tipo de certificado. Falta tabla tarifas_certificados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189"/>
+    <row r="1190">
+      <c r="B1190" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1190" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F1190" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1190" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191"/>
+    <row r="1192">
+      <c r="B1192" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1192" s="0" t="inlineStr">
+        <is>
+          <t>Sin límite de descargas por certificado. descargar() líneas 199-266 permite descargas ilimitadas. No hay contador ni límite. Potencial abuso de ancho de banda. Sin auditoría de cuántas veces se descargó.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193"/>
+    <row r="1194">
+      <c r="B1194" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1194" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1194" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1194" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195"/>
+    <row r="1196">
+      <c r="B1196" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1196" s="0" t="inlineStr">
+        <is>
+          <t>No hay rollback de archivo PDF si falla actualización. mdlActualizarTrasGeneracion() líneas 274-289. Si se genera PDF pero falla UPDATE en BD, archivo queda huérfano en servidor. No hay transacción que incluya sistema de archivos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197"/>
+    <row r="1198">
+      <c r="B1198" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1198" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1198" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1198" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199"/>
+    <row r="1200">
+      <c r="B1200" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1200" s="0" t="inlineStr">
+        <is>
+          <t>Validación de parentesco NO verifica que sacramento pertenezca al feligrés. mdlCrearSolicitud() líneas 80-165 valida parentesco PERO NO valida que sacramento_id realmente pertenezca a feligres_certificado_id. Usuario malicioso puede conocer IDs y solicitar certificados ajenos. Vulnerabilidad de seguridad crítica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201"/>
+    <row r="1202">
+      <c r="B1202" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1202" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1202" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1202" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203"/>
+    <row r="1204">
+      <c r="B1204" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1204" s="0" t="inlineStr">
+        <is>
+          <t>Sin rate limiting para solicitudes AJAX. buscarSacramentosFamiliar() líneas 58-102 no tiene rate limiting. Atacante puede hacer miles de peticiones para enumerar estructura de BD (enumeration attack). Potencial DoS por abuso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205"/>
+    <row r="1206">
+      <c r="B1206" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1206" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1206" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1206" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207"/>
+    <row r="1208">
+      <c r="B1208" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1208" s="0" t="inlineStr">
+        <is>
+          <t>Método obtenerFeligresIdUsuario() duplicado en controller. Controller líneas 273-286 implementa lógica de BD en controller (violación MVC). Código duplicado si otros controllers necesitan esta funcionalidad. Debe moverse a ModeloFeligres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209"/>
+    <row r="1210">
+      <c r="B1210" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1210" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1210" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1210" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - SolicitudesCertificados</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211"/>
+    <row r="1212">
+      <c r="B1212" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1212" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de estado al marcar como pagado. mdlMarcarPagado() líneas 236-249 no valida que certificado esté en estado pendiente_pago. Puede marcar como pagado un certificado ya generado/descargado/expirado. Inconsistencia de estados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213"/>
+    <row r="1214">
+      <c r="B1214" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1214" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1214" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1214" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215"/>
+    <row r="1216">
+      <c r="B1216" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1216" s="0" t="inlineStr">
+        <is>
+          <t>URL de reseteo hardcodeada en localhost. procesarSolicitudOlvido() línea 138 tiene http://localhost/parroquiaPOO/... No funciona en producción. Usuarios no pueden resetear contraseñas en servidor real. Debe obtener dominio dinámicamente o desde config.php.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217"/>
+    <row r="1218">
+      <c r="B1218" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1218" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1218" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1218" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219"/>
+    <row r="1220">
+      <c r="B1220" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1220" s="0" t="inlineStr">
+        <is>
+          <t>Sin rate limiting para solicitudes de recuperación. procesarSolicitudOlvido() líneas 98-178 no limita cuántas veces se puede solicitar. Atacante puede spamear emails de recuperación. Sobrecarga del servidor SMTP. Potencial bloqueo por proveedor de email (blacklist).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221"/>
+    <row r="1222">
+      <c r="B1222" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1222" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1222" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1222" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223"/>
+    <row r="1224">
+      <c r="B1224" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1224" s="0" t="inlineStr">
+        <is>
+          <t>Sin limpieza de tokens expirados. ModeloUsuario (falta método). Tokens expirados quedan en BD indefinidamente. Acumulación de datos basura en columnas reset_token. BD crece innecesariamente. Falta cron job diario para limpiar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225"/>
+    <row r="1226">
+      <c r="B1226" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1226" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1226" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1226" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227"/>
+    <row r="1228">
+      <c r="B1228" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1228" s="0" t="inlineStr">
+        <is>
+          <t>Validación de contraseña débil. RegistroController línea 53, LoginController línea 236. Solo verifica longitud &gt;= 8. No requiere mayúsculas, minúsculas, números o caracteres especiales. Contraseñas débiles permitidas: "12345678", "aaaaaaaa". Vulnerable a ataques de diccionario. No cumple OWASP.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229"/>
+    <row r="1230">
+      <c r="B1230" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1230" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1230" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1230" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231"/>
+    <row r="1232">
+      <c r="B1232" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1232" s="0" t="inlineStr">
+        <is>
+          <t>Sin protección contra timing attacks en verificación. mdlVerificarLogin() líneas 50-77 retorna NULL inmediatamente si usuario no existe, pero tarda más si existe. Diferencia de tiempo revela si email existe. Permite enumeración de usuarios. Debe hacer hash fake para igualar tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233"/>
+    <row r="1234">
+      <c r="B1234" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1234" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1234" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1234" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235"/>
+    <row r="1236">
+      <c r="B1236" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1236" s="0" t="inlineStr">
+        <is>
+          <t>Sin bloqueo de cuenta tras intentos fallidos. procesar() (falta implementación). No hay contador de intentos fallidos. Vulnerable a ataques de fuerza bruta. Atacante puede probar miles de contraseñas. Sin protección contra bots automatizados. Debe bloquear 15 minutos tras 5 intentos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237"/>
+    <row r="1238">
+      <c r="B1238" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1238" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1238" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1238" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239"/>
+    <row r="1240">
+      <c r="B1240" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1240" s="0" t="inlineStr">
+        <is>
+          <t>Sin verificación de email al registrarse. RegistroController (falta implementación). Cualquiera puede registrarse con email ajeno sin confirmación. Ataques de suplantación. Usuario B no puede registrarse con su propio email. Spam de registros. Debe enviar email con token de verificación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241"/>
+    <row r="1242">
+      <c r="B1242" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1242" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1242" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1242" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243"/>
+    <row r="1244">
+      <c r="B1244" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1244" s="0" t="inlineStr">
+        <is>
+          <t>Sin CAPTCHA en formularios críticos. Login, Registro, Recuperación (falta implementación). Vulnerables a bots automatizados. Bots pueden crear miles de cuentas, hacer fuerza bruta contra login, saturar recuperación de contraseñas (spam de emails). Debe integrar Google reCAPTCHA v2 o v3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245"/>
+    <row r="1246">
+      <c r="B1246" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1246" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1246" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1246" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247"/>
+    <row r="1248">
+      <c r="B1248" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1248" s="0" t="inlineStr">
+        <is>
+          <t>Configuración SMTP expuesta en código. config.php (referenciado líneas 145-150). Credenciales SMTP (SMTP_USERNAME, SMTP_PASSWORD) en archivo que puede estar en repositorio git. Si sube a GitHub, credenciales expuestas. Atacante puede usar cuenta para spam. Debe usar variables de entorno (.env).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249"/>
+    <row r="1250">
+      <c r="B1250" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1250" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1250" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1250" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Login</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251"/>
+    <row r="1252">
+      <c r="B1252" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1252" s="0" t="inlineStr">
+        <is>
+          <t>Sin logging de intentos de login para auditoría. procesar() (falta implementación). Sistema no registra intentos (exitosos y fallidos) en tabla. Sin trazabilidad de accesos. No se puede detectar patrones sospechosos. No cumple compliance (GDPR, auditorías). Debe crear tabla login_attempts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253"/>
+    <row r="1254">
+      <c r="B1254" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1254" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1254" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1254" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255"/>
+    <row r="1256">
+      <c r="B1256" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1256" s="0" t="inlineStr">
+        <is>
+          <t>Modelo DashboardModel no está en análisis. Controller líneas 13, 28, 31 instancia DashboardModel pero archivo no fue analizado. Sin visibilidad de qué estadísticas se obtienen. Posibles queries N+1 no detectadas. Lógica de negocio no documentada.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257"/>
+    <row r="1258">
+      <c r="B1258" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1258" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1258" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1258" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259"/>
+    <row r="1260">
+      <c r="B1260" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1260" s="0" t="inlineStr">
+        <is>
+          <t>Sin verificación de rol para datos sensibles. mostrar() línea 19 no diferencia contenido según rol. Feligrés ve mismas estadísticas que Admin (ej: total de usuarios, total de pagos). Violación de principio de privilegio mínimo. Datos sensibles expuestos a roles no autorizados.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261"/>
+    <row r="1262">
+      <c r="B1262" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1262" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1262" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1262" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263"/>
+    <row r="1264">
+      <c r="B1264" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1264" s="0" t="inlineStr">
+        <is>
+          <t>Controller extremadamente simple (posible código incompleto). DashboardController (todo el archivo, 36 líneas) solo tiene 1 método con lógica mínima. Inusualmente simple para un dashboard. Funcionalidades comunes faltantes: filtros por fecha, exportar estadísticas, gráficos. UX pobre si solo muestra datos estáticos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265"/>
+    <row r="1266">
+      <c r="B1266" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1266" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1266" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1266" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Perfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267"/>
+    <row r="1268">
+      <c r="B1268" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1268" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de autenticación. Todos los métodos. Ningún método valida $_SESSION['logged']. Usuario no autenticado puede acceder. Vulnerabilidad crítica de seguridad. Debe agregar validación al inicio de cada método.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269"/>
+    <row r="1270">
+      <c r="B1270" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1270" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1270" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1270" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Perfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271"/>
+    <row r="1272">
+      <c r="B1272" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1272" s="0" t="inlineStr">
+        <is>
+          <t>Lógica de crear/actualizar es confusa. actualizar() líneas 80-89 decide basándose en $_SESSION['user-datos'] pero luego busca feligrés con mdlConsultarFeligres(). Lógica redundante e inconsistente. Si sesión se pierde, intenta crear duplicado. Llamada extra a BD (ineficiente).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273"/>
+    <row r="1274">
+      <c r="B1274" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1274" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1274" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1274" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Perfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275"/>
+    <row r="1276">
+      <c r="B1276" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1276" s="0" t="inlineStr">
+        <is>
+          <t>No se valida que documento no esté en uso por otro usuario. actualizar() líneas 80-89. Al actualizar, no valida que nuevo documento no pertenezca a otro feligrés. Usuario A puede cambiar a documento de usuario B. Violación de integridad, confusión de identidades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277"/>
+    <row r="1278">
+      <c r="B1278" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1278" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1278" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1278" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Perfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279"/>
+    <row r="1280">
+      <c r="B1280" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1280" s="0" t="inlineStr">
+        <is>
+          <t>Sin validación de formato de datos. actualizar() líneas 50-101 no valida: formato de fecha_nacimiento (puede ser inválida), longitud de teléfono, formato de dirección. Datos inconsistentes en BD. Debe validar formato con regex y funciones nativas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281"/>
+    <row r="1282">
+      <c r="B1282" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1282" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1282" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1282" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283"/>
+    <row r="1284">
+      <c r="B1284" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1284" s="0" t="inlineStr">
+        <is>
+          <t>Sin verificación de email (duplicado DF-LOG-007). Cualquiera puede registrar email ajeno sin confirmación. Ataques de suplantación. Referencia: Ver DF-LOG-007 en módulo Login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285"/>
+    <row r="1286">
+      <c r="B1286" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1286" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1286" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1286" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287"/>
+    <row r="1288">
+      <c r="B1288" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1288" s="0" t="inlineStr">
+        <is>
+          <t>Validación de contraseña débil (duplicado DF-LOG-004). Línea 53 solo valida longitud &gt;= 8, sin complejidad. Referencia: Ver DF-LOG-004 en módulo Login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289"/>
+    <row r="1290">
+      <c r="B1290" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1290" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1290" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1290" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291"/>
+    <row r="1292">
+      <c r="B1292" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1292" s="0" t="inlineStr">
+        <is>
+          <t>Sin CAPTCHA (duplicado DF-LOG-008). Vulnerable a bots de spam de registros. Referencia: Ver DF-LOG-008 en módulo Login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293"/>
+    <row r="1294">
+      <c r="B1294" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1294" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1294" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1294" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295"/>
+    <row r="1296">
+      <c r="B1296" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1296" s="0" t="inlineStr">
+        <is>
+          <t>Rol hardcodeado en modelo. mdlRegistrarUsuario() línea 37 tiene rol = 1 (Feligrés) hardcodeado. Si estructura de roles cambia, código se rompe. Frágil ante cambios en catálogo de roles. Debe obtener ID de rol por nombre: obtenerRolIdPorNombre('Feligrés').</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297"/>
+    <row r="1298">
+      <c r="B1298" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1298" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1298" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1298" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299"/>
+    <row r="1300">
+      <c r="B1300" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1300" s="0" t="inlineStr">
+        <is>
+          <t>Sin rate limiting para registros. procesar() líneas 20-82 no limita cuántas cuentas se pueden crear desde una IP. Bot puede crear miles de cuentas basura. Ataque de spam. Debe limitar a 3 registros por IP cada 24 horas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301"/>
+    <row r="1302">
+      <c r="B1302" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1302" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1302" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1302" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303"/>
+    <row r="1304">
+      <c r="B1304" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1304" s="0" t="inlineStr">
+        <is>
+          <t>Email destino hardcodeado. Línea 29 tiene 'contacto@parroquia.com' hardcodeado. Cambiar email requiere modificar código. No configurable sin deployment. Debe mover a config.php: define('CONTACTO_EMAIL', ...).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305"/>
+    <row r="1306">
+      <c r="B1306" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1306" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1306" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1306" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307"/>
+    <row r="1308">
+      <c r="B1308" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1308" s="0" t="inlineStr">
+        <is>
+          <t>Uso de mail() en lugar de PHPMailer. Línea 33 usa función nativa mail() que: requiere configuración en php.ini, no funciona en localhost sin servidor mail, no soporta autenticación SMTP, headers básicos. No funciona en la mayoría de servidores compartidos. Emails pueden ir a spam. Debe usar PHPMailer como en módulo Login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309"/>
+    <row r="1310">
+      <c r="B1310" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1310" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1310" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1310" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311"/>
+    <row r="1312">
+      <c r="B1312" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1312" s="0" t="inlineStr">
+        <is>
+          <t>Sin rate limiting (spam de mensajes). mostrar() líneas 11-40 no limita cuántos mensajes se pueden enviar. Bot puede spamear formulario. Inbox del administrador saturado con spam. Debe limitar a 3 mensajes por IP cada hora + CAPTCHA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313"/>
+    <row r="1314">
+      <c r="B1314" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1314" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1314" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1314" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315"/>
+    <row r="1316">
+      <c r="B1316" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1316" s="0" t="inlineStr">
+        <is>
+          <t>Sin CAPTCHA. Formulario no tiene CAPTCHA. Vulnerable a bots. Debe integrar reCAPTCHA v2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317"/>
+    <row r="1318">
+      <c r="B1318" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1318" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1318" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1318" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319"/>
+    <row r="1320">
+      <c r="B1320" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1320" s="0" t="inlineStr">
+        <is>
+          <t>Sin logging de mensajes enviados. mostrar() líneas 28-36 no guarda mensajes en BD. Solo email. Si email falla, mensaje se pierde. Sin respaldo de mensajes, sin auditoría. Debe crear tabla mensajes_contacto (id, nombre, email, mensaje, ip, fecha).</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321"/>
+    <row r="1322">
+      <c r="B1322" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1322" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1322" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1322" s="0" t="inlineStr">
+        <is>
+          <t>Análisis FASE 4 - Contacto</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323"/>
+    <row r="1324">
+      <c r="B1324" s="0" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1324" s="0" t="inlineStr">
+        <is>
+          <t>Try-catch genérico sin manejo real. Líneas 28-40 captura Exception pero mail() no lanza excepciones. Catch nunca se ejecuta. Código muerto (dead code). Debe remover try-catch o verificar retorno de mail(): if (!mail(...)) { error }.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="B1326" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - BaseController</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Muchos controllers NO heredan de BaseController. BaseController existe con excelente arquitectura PERO la mayoría de controllers NO heredan: GruposController, NoticiasController, ReportesController, PerfilController, DashboardController, ContactoController, LoginController, RegistroController. Duplicación de código de validación. Defectos como DF-PERF-001 (sin validación autenticación) podrían evitarse. Infrautilización de buena arquitectura.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="B1330" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - BaseController</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>requiereAdmin() redirige a dashboard en lugar de login. Línea 22. Si usuario no autenticado llama método con requiereAdmin(), redirige a dashboard (que a su vez redirigirá a login). Doble redirección innecesaria. Mala UX, mensaje de error confuso. Debe validar autenticación primero.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="B1334" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - BaseController</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Roles hardcodeados en múltiples lugares. Líneas 20, 48. Valores de roles ('Administrador', 'Secretario') hardcodeados. Si cambia nombre en BD, código se rompe. Frágil ante cambios en catálogo de roles. Debe usar constantes: class Roles { const ADMINISTRADOR = 'Administrador'; }.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="B1338" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Controller extremadamente simple (posible falta de funcionalidades). HomeController (13 líneas) solo tiene 1 método con 1 línea de lógica. No hay: obtención de noticias recientes, estadísticas públicas, formulario de contacto rápido, integración con calendario. Home estática, sin contenido dinámico. UX pobre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="B1342" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>No hereda de BaseController. Línea 7. En este caso es aceptable porque home es pública, pero limita reutilización si se agregan métodos protegidos. Ningún impacto actualmente (home es público). No es necesario corregir para home pública.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="B1346" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Informacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Controller idéntico a HomeController (duplicación). InformacionController (13 líneas) es idéntico a HomeController (solo cambia nombre de vista). Patrón repetido. Código duplicado, pero funcional. Violación de principio DRY. Debe crear VistaEstaticaController genérico si hay muchos controllers de vista estática.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="B1350" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Informacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Sin manejo de contenido dinámico. mostrar() líneas 9-12. Contenido completamente estático. Si se quiere actualizar historia, equipo pastoral, etc., hay que editar HTML directamente. Sin CMS básico para contenido institucional. Admin debe editar archivos PHP. Debe crear tabla paginas_contenido con editor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="B1354" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Analytics implementado con Logger::error() en lugar de info/debug. registrarVisualizacion() línea 182 usa Logger::error() para registrar evento que NO es un error. Logs de analytics se mezclan con logs de errores reales. Confusión al revisar logs. Debe usar Logger::info() o Logger::debug().</t>
+        </is>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="B1358" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Analytics no implementado (solo stub). registrarVisualizacion() líneas 176-189, getEstadisticasManual() líneas 196-204. Métodos existen pero no guardan datos en BD. Solo retornan valores hardcodeados (0). Sin métricas reales de uso del manual. No se puede saber qué secciones son más consultadas. Debe implementar con tabla manual_analytics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="B1362" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>verificarAcceso() siempre retorna true. Línea 250. Método define secciones públicas/privadas pero al final siempre retorna true. Control de acceso no funciona. Sin restricción real de acceso. Cualquiera puede ver secciones de admin en manual. Debe implementar lógica real verificando seccionId contra seccionesPublicas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="B1366" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1366" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Ejecución directa del controller (anti-patrón). Líneas 370-382. Controller tiene código de ejecución directa fuera de clase if (basename($_SERVER['PHP_SELF']) === 'ManualController.php'). Violación de patrón MVC (controller auto-ejecutable). Problemas si se incluye desde otro lugar. Difícil de testear. Debe eliminar bloque, toda invocación debe venir del router principal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="B1370" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>90</v>
+      </c>
+      <c r="H1370" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>handleAjax() no valida origen de petición. Líneas 313-357. Método procesa cualquier POST con action sin validar: no verifica HTTP_X_REQUESTED_WITH (no es realmente AJAX), no valida token CSRF, no verifica origen. Potencial CSRF si se agregan acciones que modifican datos. Debe agregar validación AJAX real.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="B1374" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>Búsqueda muy básica (solo nombre y descripción). buscar() líneas 212-229. Búsqueda solo en nombre y descripción de secciones, no busca dentro de componentes ni contenido real del manual. Resultados limitados. Si usuario busca "crear noticia", no encuentra aunque esté en componentes. Debe buscar también en array de componentes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="B1378" s="40" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>Análisis FASE 5 - Manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Descripcion:</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Comentarios excesivos (anti-patrón). Líneas 384-455 (bloque completo). 70 líneas de comentarios al final del archivo con "NOTAS DE USO". Demasiado extenso para código fuente. Archivo muy largo (455 líneas para lógica simple). Comentarios deben estar en documentación externa. Debe mover a archivo README.md separado.</t>
         </is>
       </c>
     </row>
